--- a/Datos/WEB Estándares Fruto Arato y Beggie 2 años (26 Nov 2016).xlsx
+++ b/Datos/WEB Estándares Fruto Arato y Beggie 2 años (26 Nov 2016).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="779"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="4860" tabRatio="779" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen Arato -Zutano Fruto" sheetId="6" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Resumen Beggie -Lula Fruto" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="35">
   <si>
     <t>Fenología</t>
   </si>
@@ -137,6 +138,9 @@
   </si>
   <si>
     <t>Fruto en media cosecha (≥ 24% MS</t>
+  </si>
+  <si>
+    <t>Fruto en media cosecha (≥ 24% MS)</t>
   </si>
 </sst>
 </file>
@@ -843,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:AS27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D21"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1079,13 +1083,13 @@
         <v>7</v>
       </c>
       <c r="AF7" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AH7" s="12">
-        <v>1.0933333333333333</v>
+        <v>1.0933333333333299</v>
       </c>
       <c r="AI7" s="12">
         <v>15.028972614471062</v>
@@ -1697,7 +1701,7 @@
         <v>17</v>
       </c>
       <c r="AH16" s="12">
-        <v>31.588888888888889</v>
+        <v>31.588888888888899</v>
       </c>
       <c r="AI16" s="12">
         <v>26.019441505510716</v>
@@ -2117,8 +2121,8 @@
   </sheetPr>
   <dimension ref="A1:AS27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
